--- a/biology/Zoologie/Galbiin_goviin_ulaan/Galbiin_goviin_ulaan.xlsx
+++ b/biology/Zoologie/Galbiin_goviin_ulaan/Galbiin_goviin_ulaan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Galbiin goviin ulaan ou Galbiin gobiin ulaan est une race de chameau de Bactriane originaire du désert de Gobi, dans le sud de la Mongolie.
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Galbiin goviin ulaan est plus grand et lourd que les autres races de chameau de Mongolie. On le trouve dans le sum de Bayan-Ovoo, au sud-est de la province d'Ömnögovi. Le mâle atteint 175 cm au garrot et la femelle 167 cm. Le poids varie en fonction de la saison ; le mâle atteindra les 668 kg à l'arrivée de l'hiver et tombera vers 569 kg au printemps. La femelle passera de 523 à 413 kg. La couleur de la robe varie du brun au rouge[1],[2],[3].
-C'est un animal robuste, parfait comme animal de bât et d'attelage. Il est également utilisé pour une production mixte (viande, lait et laine). Les animaux sont mâtures sexuellement à 2,5 ans et la chamelle a un seul petit. Un animal peut fournir 5 à 8 kg de laine[4],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Galbiin goviin ulaan est plus grand et lourd que les autres races de chameau de Mongolie. On le trouve dans le sum de Bayan-Ovoo, au sud-est de la province d'Ömnögovi. Le mâle atteint 175 cm au garrot et la femelle 167 cm. Le poids varie en fonction de la saison ; le mâle atteindra les 668 kg à l'arrivée de l'hiver et tombera vers 569 kg au printemps. La femelle passera de 523 à 413 kg. La couleur de la robe varie du brun au rouge.
+C'est un animal robuste, parfait comme animal de bât et d'attelage. Il est également utilisé pour une production mixte (viande, lait et laine). Les animaux sont mâtures sexuellement à 2,5 ans et la chamelle a un seul petit. Un animal peut fournir 5 à 8 kg de laine,.
 </t>
         </is>
       </c>
